--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -35,6 +35,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -470,226 +471,271 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="164.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="164.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Invoice Numer</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>Client Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Note Date</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Note Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1000001</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Reached out to client AP contact for payment of 10 open invoices totaling 10250 USD.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1000002</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Client advised that there is cash crunch impacting fund transfer. Partial payment expected by Jan Month end with further settlements in Feb</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1000003</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>45324</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">As discussed, partial payment of 5,000 USD received via wire transfer. </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>1000004</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">Had further follow-up with client on remaining open balance. This includes newly created 5 invoices with a value of 4000 USD leading to open balance of 12250 USD. </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>1000005</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">Client has released another partial payment of 8000 USD. Had discussion with AP contact on settlement plan for current open balance. </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>1000006</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>45366</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">AP Contact has been changed from John to Matthew effective immediately. Matthew will be the SPOC for all payments going forward. </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1000007</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">Client has released full payment for all open invoices, effectively closing out the dunning process for current open AR. Expect all payments to be applied by 5th April in the system. </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1000008</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>45304</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sent initial chaser to client on outstanding balance</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1000009</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Per email from Jim (AP), B LLC has expressed an inability to pay at the moment and promised to make a payment by 1st March. EP has been looped in to advise further.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1000010</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">Per EP advise, we will pause follow-ups till PTP expires. </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1000011</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>45349</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>As per latest update from Jim, B LLC is under financial strain and might not be able to make payment on agreed upon date. They are unable to commit to a new date, but instead have mentioned payment in "near future"</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1000012</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>45364</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">Had discussion with EP on this during weekly call. The client will be sent to bad debt collection </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1000013</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>45368</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">Invoices sent to Bad debt collection. Payment is not expected and might need a write-off. </t>
         </is>
@@ -707,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +769,12 @@
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>T5 Summary</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>BART Summary</t>
         </is>
       </c>
     </row>
@@ -735,7 +786,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> on 1st Jan 2024, Reached out to client AP contact for payment of 10 open invoices. on 15th Jan 2024, Client advised that there is cash crunch impacting fund transfer. on 1st Apr 2024, Client has released full payment for all open invoices.</t>
+          <t>there is cash crunch impacting fund transfer. partial payment expected by Jan Month end with further settlements in Feb. Client has released full payment for all open invoices. expect all payments to be applied by 5th April in the system.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Update On: 15th Mar 2024, AP Contact has been changed from John to Matthew effective immediately. Matthew will be the SPOC for all payments going forward. Expect all payments to be applied by 5th April in the system.</t>
         </is>
       </c>
     </row>
@@ -747,7 +803,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> on 13th Jan 2024, Sent initial chaser to client on outstanding balance. on 14th Feb 2024, per email from Jim (AP), we will pause follow-ups till PTP expires. on 13th mar 2024, Invoices sent to bad debt collection.</t>
+          <t>B LLC has expressed an inability to pay at the moment and promised to make a payment by 1st march. unable to commit to a new date, but instead have mentioned payment in "near future" the client will be sent to bad debt collection; payment is not expected and might need a write-off.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Update On: 13th Jan 2024, Sent initial chaser to client on outstanding balance. Per email from Jim (AP), B LLC has expressed an inability to pay at the moment and promised to make a payment by 1st March.</t>
         </is>
       </c>
     </row>
